--- a/Manual_Testcase/TestCase_TheGioiTraiCay.xlsx
+++ b/Manual_Testcase/TestCase_TheGioiTraiCay.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\DACK-7\Manual_Testcase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITC\HK4\SoftwareTesting\pratice\DACK-7\Manual_Testcase\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Changelog" sheetId="1" r:id="rId1"/>
@@ -988,12 +988,6 @@
     <t>S3</t>
   </si>
   <si>
-    <t>đăng ký tài khoản</t>
-  </si>
-  <si>
-    <t>1)nhập tất cả các giá trị tương ứng hợp lệ 2)nhấn nút đăng ký</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Họ": Trương
 "Tên": Thiên
 "Email":thien712.kn@gmail.com
@@ -1004,33 +998,15 @@
     <t>Hiển thị thông báo "Đăng ký thành công" và chuyển đến trang quản lý account</t>
   </si>
   <si>
-    <t>đăng nhập tài khoản</t>
-  </si>
-  <si>
-    <t>1)nhập tất cả các giá trị tương ứng hợp lệ 2)nhấn nút đăng nhập</t>
-  </si>
-  <si>
     <t>"email":thien712.kn@gmail.com "mật khẩu":thien</t>
   </si>
   <si>
-    <t>thanh toán</t>
-  </si>
-  <si>
-    <t>chọn sản phẩm thành công và tiến hành đặt hàng</t>
-  </si>
-  <si>
     <t>"thêm địa chỉ mới":70000,việt nam "họ và tên":Trương Thiên "sđt":0123456789                        "địa chỉ":1/1/2           "tỉnh/thành":hcm    "quận/huyện":hcm    "phường/xã":hcm</t>
   </si>
   <si>
     <t>tiến hành thanh toán</t>
   </si>
   <si>
-    <t>đăng ký thành công khi nhập đầy đủ thông tin</t>
-  </si>
-  <si>
-    <t>đăng nhập thành công chuyển đến trang chính</t>
-  </si>
-  <si>
     <t>chuyển đến trang chính</t>
   </si>
   <si>
@@ -1046,8 +1022,34 @@
     <t>Kiểm tra chức năng đăng nhập</t>
   </si>
   <si>
-    <t>1)nhập tất cả các giá trị tương ứng hợp lệ 
-2)tiến hành đặt hàng</t>
+    <t>1) Nhập tất cả các giá trị tương ứng hợp lệ 
+2) Nhấn nút đăng ký</t>
+  </si>
+  <si>
+    <t>1) Nhập tất cả các giá trị tương ứng hợp lệ 
+2) Nhấn nút đăng nhập</t>
+  </si>
+  <si>
+    <t>1) Nhập tất cả các giá trị tương ứng hợp lệ 
+2) Tiến hành đặt hàng</t>
+  </si>
+  <si>
+    <t>Đăng ký tài khoản</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản</t>
+  </si>
+  <si>
+    <t>Thanh toán</t>
+  </si>
+  <si>
+    <t>Đăng ký thành công khi nhập đầy đủ thông tin</t>
+  </si>
+  <si>
+    <t>Đăng nhập thành công chuyển đến trang chính</t>
+  </si>
+  <si>
+    <t>Chọn sản phẩm thành công và tiến hành đặt hàng</t>
   </si>
 </sst>
 </file>
@@ -1513,13 +1515,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1540,25 +1560,7 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1882,7 +1884,7 @@
   <dimension ref="A1:T99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -4111,8 +4113,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -4142,7 +4144,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G1" s="35" t="s">
         <v>13</v>
@@ -4158,8 +4160,8 @@
       <c r="A2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="53" t="s">
-        <v>279</v>
+      <c r="B2" s="68" t="s">
+        <v>271</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>100</v>
@@ -4197,7 +4199,7 @@
       <c r="A3" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B3" s="53"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="17" t="s">
         <v>102</v>
       </c>
@@ -4234,7 +4236,7 @@
       <c r="A4" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="17" t="s">
         <v>103</v>
       </c>
@@ -4271,7 +4273,7 @@
       <c r="A5" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="17" t="s">
         <v>104</v>
       </c>
@@ -4308,7 +4310,7 @@
       <c r="A6" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="17" t="s">
         <v>110</v>
       </c>
@@ -4346,8 +4348,8 @@
       <c r="A8" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B8" s="53" t="s">
-        <v>280</v>
+      <c r="B8" s="68" t="s">
+        <v>272</v>
       </c>
       <c r="C8" s="17" t="s">
         <v>103</v>
@@ -4385,7 +4387,7 @@
       <c r="A9" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="17" t="s">
         <v>110</v>
       </c>
@@ -4422,7 +4424,7 @@
       <c r="A10" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="68"/>
       <c r="C10" s="17" t="s">
         <v>205</v>
       </c>
@@ -4459,7 +4461,7 @@
       <c r="A11" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="68"/>
       <c r="C11" s="14" t="s">
         <v>231</v>
       </c>
@@ -4497,7 +4499,7 @@
       <c r="A12" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="68"/>
       <c r="C12" s="17" t="s">
         <v>208</v>
       </c>
@@ -4508,7 +4510,7 @@
         <v>259</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G12" s="39" t="s">
         <v>209</v>
@@ -4539,6 +4541,7 @@
     <mergeCell ref="B8:B12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4549,7 +4552,7 @@
   </sheetPr>
   <dimension ref="A1:V104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
     </sheetView>
@@ -4585,7 +4588,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="49" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G1" s="31" t="s">
         <v>13</v>
@@ -4613,8 +4616,8 @@
       <c r="V1" s="13"/>
     </row>
     <row r="2" spans="1:22" ht="15.75">
-      <c r="A2" s="54"/>
-      <c r="B2" s="55"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="59"/>
       <c r="H2" s="14"/>
       <c r="I2" s="16"/>
       <c r="J2" s="17"/>
@@ -4635,7 +4638,7 @@
       <c r="A3" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="62" t="s">
         <v>258</v>
       </c>
       <c r="C3" s="17" t="s">
@@ -4674,7 +4677,7 @@
       <c r="A4" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="B4" s="57"/>
+      <c r="B4" s="63"/>
       <c r="C4" s="17" t="s">
         <v>102</v>
       </c>
@@ -4711,7 +4714,7 @@
       <c r="A5" s="17" t="s">
         <v>106</v>
       </c>
-      <c r="B5" s="57"/>
+      <c r="B5" s="63"/>
       <c r="C5" s="17" t="s">
         <v>103</v>
       </c>
@@ -4748,7 +4751,7 @@
       <c r="A6" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="57"/>
+      <c r="B6" s="63"/>
       <c r="C6" s="17" t="s">
         <v>104</v>
       </c>
@@ -4785,7 +4788,7 @@
       <c r="A7" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B7" s="57"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="17" t="s">
         <v>225</v>
       </c>
@@ -4796,7 +4799,7 @@
         <v>238</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G7" s="46" t="s">
         <v>144</v>
@@ -4825,7 +4828,7 @@
       <c r="A8" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="57"/>
+      <c r="B8" s="63"/>
       <c r="C8" s="17" t="s">
         <v>110</v>
       </c>
@@ -4862,7 +4865,7 @@
       <c r="A9" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B9" s="57"/>
+      <c r="B9" s="63"/>
       <c r="C9" s="24" t="s">
         <v>117</v>
       </c>
@@ -4899,7 +4902,7 @@
       <c r="A10" s="20" t="s">
         <v>126</v>
       </c>
-      <c r="B10" s="57"/>
+      <c r="B10" s="63"/>
       <c r="C10" s="24" t="s">
         <v>145</v>
       </c>
@@ -4936,7 +4939,7 @@
       <c r="A11" s="17" t="s">
         <v>131</v>
       </c>
-      <c r="B11" s="57"/>
+      <c r="B11" s="63"/>
       <c r="C11" s="19" t="s">
         <v>122</v>
       </c>
@@ -4973,7 +4976,7 @@
       <c r="A12" s="20" t="s">
         <v>147</v>
       </c>
-      <c r="B12" s="58"/>
+      <c r="B12" s="64"/>
       <c r="C12" s="27" t="s">
         <v>127</v>
       </c>
@@ -4984,7 +4987,7 @@
         <v>241</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G12" s="48" t="s">
         <v>129</v>
@@ -5010,8 +5013,8 @@
       <c r="V12" s="19"/>
     </row>
     <row r="13" spans="1:22" ht="15.75">
-      <c r="A13" s="67"/>
-      <c r="B13" s="68"/>
+      <c r="A13" s="60"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="19"/>
       <c r="D13" s="21"/>
       <c r="E13" s="44"/>
@@ -5036,7 +5039,7 @@
       <c r="A14" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="65" t="s">
         <v>200</v>
       </c>
       <c r="C14" s="17" t="s">
@@ -5075,7 +5078,7 @@
       <c r="A15" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="60"/>
+      <c r="B15" s="66"/>
       <c r="C15" s="17" t="s">
         <v>205</v>
       </c>
@@ -5112,7 +5115,7 @@
       <c r="A16" s="14" t="s">
         <v>202</v>
       </c>
-      <c r="B16" s="60"/>
+      <c r="B16" s="66"/>
       <c r="C16" s="17" t="s">
         <v>110</v>
       </c>
@@ -5149,7 +5152,7 @@
       <c r="A17" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="B17" s="60"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="17" t="s">
         <v>208</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>259</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G17" s="37" t="s">
         <v>209</v>
@@ -5189,7 +5192,7 @@
       <c r="A18" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="B18" s="61"/>
+      <c r="B18" s="67"/>
       <c r="C18" s="17" t="s">
         <v>210</v>
       </c>
@@ -5223,8 +5226,8 @@
       <c r="V18" s="19"/>
     </row>
     <row r="19" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A19" s="54"/>
-      <c r="B19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="59"/>
       <c r="H19" s="14"/>
       <c r="I19" s="16"/>
       <c r="J19" s="19"/>
@@ -5245,7 +5248,7 @@
       <c r="A20" s="14" t="s">
         <v>216</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="65" t="s">
         <v>229</v>
       </c>
       <c r="C20" s="14" t="s">
@@ -5285,7 +5288,7 @@
       <c r="A21" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="B21" s="60"/>
+      <c r="B21" s="66"/>
       <c r="C21" s="14" t="s">
         <v>231</v>
       </c>
@@ -5323,7 +5326,7 @@
       <c r="A22" s="14" t="s">
         <v>219</v>
       </c>
-      <c r="B22" s="61"/>
+      <c r="B22" s="67"/>
       <c r="C22" s="14" t="s">
         <v>221</v>
       </c>
@@ -5358,10 +5361,10 @@
       <c r="V22" s="19"/>
     </row>
     <row r="23" spans="1:22" ht="28.5" customHeight="1">
-      <c r="A23" s="54" t="s">
+      <c r="A23" s="58" t="s">
         <v>222</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="59"/>
       <c r="H23" s="14"/>
       <c r="I23" s="16"/>
       <c r="J23" s="19"/>
@@ -5382,7 +5385,7 @@
       <c r="A24" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="53" t="s">
         <v>133</v>
       </c>
       <c r="C24" s="27" t="s">
@@ -5422,7 +5425,7 @@
       <c r="A25" s="19" t="s">
         <v>139</v>
       </c>
-      <c r="B25" s="63"/>
+      <c r="B25" s="54"/>
       <c r="C25" s="19" t="s">
         <v>140</v>
       </c>
@@ -5433,7 +5436,7 @@
         <v>142</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>143</v>
@@ -5462,7 +5465,7 @@
       <c r="A26" s="19" t="s">
         <v>253</v>
       </c>
-      <c r="B26" s="64"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="19" t="s">
         <v>255</v>
       </c>
@@ -5497,8 +5500,8 @@
       <c r="V26" s="19"/>
     </row>
     <row r="27" spans="1:22" ht="15.75">
-      <c r="A27" s="65"/>
-      <c r="B27" s="66"/>
+      <c r="A27" s="56"/>
+      <c r="B27" s="57"/>
       <c r="C27" s="19"/>
       <c r="D27" s="21"/>
       <c r="E27" s="44"/>
@@ -5523,7 +5526,7 @@
       <c r="A28" s="22" t="s">
         <v>148</v>
       </c>
-      <c r="B28" s="62" t="s">
+      <c r="B28" s="53" t="s">
         <v>149</v>
       </c>
       <c r="C28" s="27" t="s">
@@ -5561,7 +5564,7 @@
       <c r="A29" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="B29" s="64"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="19" t="s">
         <v>155</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>158</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>159</v>
@@ -5598,8 +5601,8 @@
       <c r="V29" s="19"/>
     </row>
     <row r="30" spans="1:22" ht="12.75" customHeight="1">
-      <c r="A30" s="65"/>
-      <c r="B30" s="66"/>
+      <c r="A30" s="56"/>
+      <c r="B30" s="57"/>
       <c r="C30" s="19"/>
       <c r="D30" s="21"/>
       <c r="E30" s="44"/>
@@ -5624,7 +5627,7 @@
       <c r="A31" s="19" t="s">
         <v>160</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="53" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -5664,7 +5667,7 @@
       <c r="A32" s="22" t="s">
         <v>165</v>
       </c>
-      <c r="B32" s="63"/>
+      <c r="B32" s="54"/>
       <c r="C32" s="27" t="s">
         <v>167</v>
       </c>
@@ -5702,7 +5705,7 @@
       <c r="A33" s="19" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="63"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="19" t="s">
         <v>170</v>
       </c>
@@ -5740,7 +5743,7 @@
       <c r="A34" s="19" t="s">
         <v>173</v>
       </c>
-      <c r="B34" s="63"/>
+      <c r="B34" s="54"/>
       <c r="C34" s="19" t="s">
         <v>174</v>
       </c>
@@ -5778,7 +5781,7 @@
       <c r="A35" s="19" t="s">
         <v>177</v>
       </c>
-      <c r="B35" s="63"/>
+      <c r="B35" s="54"/>
       <c r="C35" s="19" t="s">
         <v>179</v>
       </c>
@@ -5816,7 +5819,7 @@
       <c r="A36" s="19" t="s">
         <v>178</v>
       </c>
-      <c r="B36" s="63"/>
+      <c r="B36" s="54"/>
       <c r="C36" s="19" t="s">
         <v>183</v>
       </c>
@@ -5854,7 +5857,7 @@
       <c r="A37" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="B37" s="63"/>
+      <c r="B37" s="54"/>
       <c r="C37" s="19" t="s">
         <v>188</v>
       </c>
@@ -5892,7 +5895,7 @@
       <c r="A38" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="B38" s="63"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="19" t="s">
         <v>191</v>
       </c>
@@ -5930,7 +5933,7 @@
       <c r="A39" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="B39" s="64"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="19" t="s">
         <v>196</v>
       </c>
@@ -7527,18 +7530,18 @@
   </sheetData>
   <autoFilter ref="A1:H32"/>
   <mergeCells count="12">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="B3:B12"/>
+    <mergeCell ref="B14:B18"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B20:B22"/>
     <mergeCell ref="B31:B39"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="B3:B12"/>
-    <mergeCell ref="B14:B18"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B20:B22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7548,10 +7551,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -7583,7 +7589,7 @@
         <v>12</v>
       </c>
       <c r="F1" s="50" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="G1" s="50" t="s">
         <v>13</v>
@@ -7600,25 +7606,25 @@
         <v>260</v>
       </c>
       <c r="B2" s="29" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>279</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>273</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>263</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>274</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="F2" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G2" s="30" t="s">
         <v>264</v>
       </c>
-      <c r="E2" s="29" t="s">
-        <v>265</v>
-      </c>
-      <c r="F2" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>266</v>
-      </c>
       <c r="H2" s="30" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="I2" s="29" t="s">
         <v>16</v>
@@ -7629,25 +7635,25 @@
         <v>261</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D3" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>265</v>
+      </c>
+      <c r="F3" s="38" t="s">
+        <v>270</v>
+      </c>
+      <c r="G3" s="29" t="s">
         <v>268</v>
       </c>
-      <c r="E3" s="29" t="s">
-        <v>269</v>
-      </c>
-      <c r="F3" s="38" t="s">
-        <v>278</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>276</v>
-      </c>
       <c r="H3" s="29" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="I3" s="29" t="s">
         <v>16</v>
@@ -7658,25 +7664,25 @@
         <v>262</v>
       </c>
       <c r="B4" s="29" t="s">
+        <v>278</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>281</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F4" s="38" t="s">
         <v>270</v>
       </c>
-      <c r="C4" s="29" t="s">
-        <v>271</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>281</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>272</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>278</v>
-      </c>
       <c r="G4" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="H4" s="29" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="I4" s="29" t="s">
         <v>16</v>
@@ -8350,6 +8356,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Tài liệu" ma:contentTypeID="0x0101008D48CB675EFA464BA0B62EC1E8F382D5" ma:contentTypeVersion="2" ma:contentTypeDescription="Tạo tài liệu mới." ma:contentTypeScope="" ma:versionID="429805f514cca5e20ee65c9ca11299fb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="b16e014a-c23e-412b-b96e-a9fc712bb122" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="64171ced0ae51b6217dc7edfcb4b03ff" ns2:_="">
     <xsd:import namespace="b16e014a-c23e-412b-b96e-a9fc712bb122"/>
@@ -8481,35 +8502,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE2B1AB-3BB2-4B2D-9654-07F0163D500F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EADFBCC0-F32C-4011-9A3D-F9B6A78ADEBD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="b16e014a-c23e-412b-b96e-a9fc712bb122"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8531,9 +8527,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EADFBCC0-F32C-4011-9A3D-F9B6A78ADEBD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BFE2B1AB-3BB2-4B2D-9654-07F0163D500F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="b16e014a-c23e-412b-b96e-a9fc712bb122"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>